--- a/file_export/nang_luong/To trinh can bo nang luong.xlsx
+++ b/file_export/nang_luong/To trinh can bo nang luong.xlsx
@@ -19,10 +19,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
   </si>
   <si>
-    <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
   <si>
     <t>***</t>
@@ -31,7 +31,7 @@
     <t>BAN TỔ CHỨC</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 21 tháng 10 năm 2014</t>
+    <t>Hà Nội, ngày 19 tháng 06 năm 2017</t>
   </si>
   <si>
     <t>Số:           -TTr/BTC</t>
@@ -43,7 +43,7 @@
     <t>V/v thực hiện chế độ nâng bậc lương thường xuyên,</t>
   </si>
   <si>
-    <t>phụ cấp thâm niên vượt khung đợt ........năm 2014</t>
+    <t>phụ cấp thâm niên vượt khung đợt ........năm 2017</t>
   </si>
   <si>
     <t xml:space="preserve">cho cán bộ, công chức, viên chức cơ quan Trung ương Đoàn
@@ -80,19 +80,19 @@
     <t xml:space="preserve">              Căn cứ Thông tư số 08/2013/TT-BNV ngày 31/7/2013 của Bộ Nội vụ hướng dẫn thực hiện chế độ nâng bậc lương thường xuyên và nâng bậc lương trước thời hạn đối với cán bộ, công chức, viên chức và người lao động; Thông tư số 68/2011/TTLT-BGDĐT-BNV-BTC-BLĐTBXH ngày 30/12/2011 của Bộ Giáo dục và Đào tạo - Bộ Nội vụ - Bộ Tài chính - Bộ Lao động Thương binh và Xã hội hướng dẫn thực hiện một số điều của Nghị định số 54/2011/NĐ-CP ngày 04/7/2011 của Chính phủ về chế độ phụ cấp thâm niên đối với nhà giáo; Quy chế tổ chức và hoạt động của cơ quan Trung ương Đoàn; Quy định nâng bậc lương thương xuyên và nâng bậc lương trước thời hạn đối với cán bộ, công chức, viên chức và người lao động thuộc cơ quan Trung ương Đoàn (ban hành kèm theo Quyết định số 602-QĐ/TWĐTN-BTC ngày 17/02/2014 của Bí thư thứ nhất BCH Trung ương Đoàn).</t>
   </si>
   <si>
-    <t xml:space="preserve">              Sau khi đã thẩm định diễn biến lương thực tế của cán bộ, công chức, viên chức của các ban, đơn vị thuộc cơ quan Trung ương Đoàn. Ban Tổ chức xin tổng hợp, trình Thủ trưởng cơ quan danh sách và dự thảo quyết định của 1 đồng chí</t>
+    <t xml:space="preserve">              Sau khi đã thẩm định diễn biến lương thực tế của cán bộ, công chức, viên chức của các ban, đơn vị thuộc cơ quan Trung ương Đoàn. Ban Tổ chức xin tổng hợp, trình Thủ trưởng cơ quan danh sách và dự thảo quyết định của 70 đồng chí</t>
   </si>
   <si>
     <t>đủ điều kiện, tiêu chuẩn nâng bậc lương thường xuyên và nâng phụ cấp thâm niên</t>
   </si>
   <si>
-    <t>vượt khung đợt ...... do các ban, đơn vị đề nghị và 1 đồng chí</t>
+    <t>vượt khung đợt ...... do các ban, đơn vị đề nghị và 70 đồng chí</t>
   </si>
   <si>
     <t>đủ điều kiện, tiêu</t>
   </si>
   <si>
-    <t>chuẩn nâng phụ cấp thâm niên nhà giáo đợt .....năm 2014</t>
+    <t>chuẩn nâng phụ cấp thâm niên nhà giáo đợt .....năm 2017</t>
   </si>
   <si>
     <t>(có danh sách và dự thảo quyết định gửi kèm theo).</t>
@@ -161,6 +161,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -174,15 +183,6 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="single"/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -213,46 +213,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -564,23 +564,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="true" style="3"/>
+    <col min="1" max="1" width="9.140625" customWidth="true" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -600,12 +600,12 @@
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -630,14 +630,14 @@
       <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="15"/>
@@ -662,12 +662,12 @@
       <c r="Z3" s="15"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -692,7 +692,7 @@
       <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -720,17 +720,17 @@
       <c r="Z5" s="15"/>
     </row>
     <row r="6" spans="1:26" customHeight="1" ht="19.5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -750,17 +750,17 @@
       <c r="Z6" s="15"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -780,17 +780,17 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -810,17 +810,17 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="1:26" customHeight="1" ht="36.75">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -840,17 +840,17 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" customHeight="1" ht="33.75">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -870,17 +870,17 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="187.5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -900,17 +900,17 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" customHeight="1" ht="54.75">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -930,17 +930,17 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26" customHeight="1" ht="16.5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -960,19 +960,19 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:26" customHeight="1" ht="16.5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -992,17 +992,17 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1022,17 +1022,17 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -1052,7 +1052,7 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="15"/>
@@ -1082,7 +1082,7 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1110,16 +1110,16 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -1140,10 +1140,10 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1170,8 +1170,8 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1198,8 +1198,8 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1226,8 +1226,8 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1254,8 +1254,8 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1282,16 +1282,16 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -1312,7 +1312,7 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1340,7 +1340,7 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1368,7 +1368,7 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1396,7 +1396,7 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1424,7 +1424,7 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1452,7 +1452,7 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1480,7 +1480,7 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1508,7 +1508,7 @@
       <c r="Z32" s="15"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1536,7 +1536,7 @@
       <c r="Z33" s="15"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1564,7 +1564,7 @@
       <c r="Z34" s="15"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1592,7 +1592,7 @@
       <c r="Z35" s="15"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -1620,7 +1620,7 @@
       <c r="Z36" s="15"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1648,7 +1648,7 @@
       <c r="Z37" s="15"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -1676,7 +1676,7 @@
       <c r="Z38" s="15"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -1704,7 +1704,7 @@
       <c r="Z39" s="15"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -1732,7 +1732,7 @@
       <c r="Z40" s="15"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1760,7 +1760,7 @@
       <c r="Z41" s="15"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -1788,7 +1788,7 @@
       <c r="Z42" s="15"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1816,7 +1816,7 @@
       <c r="Z43" s="15"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -1844,7 +1844,7 @@
       <c r="Z44" s="15"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -1872,7 +1872,7 @@
       <c r="Z45" s="15"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -1900,7 +1900,7 @@
       <c r="Z46" s="15"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -1928,7 +1928,7 @@
       <c r="Z47" s="15"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -1956,7 +1956,7 @@
       <c r="Z48" s="15"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -1984,7 +1984,7 @@
       <c r="Z49" s="15"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="3"/>
+      <c r="A50" s="2"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -2012,7 +2012,7 @@
       <c r="Z50" s="15"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="3"/>
+      <c r="A51" s="2"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -2040,7 +2040,7 @@
       <c r="Z51" s="15"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -2068,7 +2068,7 @@
       <c r="Z52" s="15"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -2096,7 +2096,7 @@
       <c r="Z53" s="15"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="3"/>
+      <c r="A54" s="2"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -2124,7 +2124,7 @@
       <c r="Z54" s="15"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -2152,7 +2152,7 @@
       <c r="Z55" s="15"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -2180,7 +2180,7 @@
       <c r="Z56" s="15"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -2208,7 +2208,7 @@
       <c r="Z57" s="15"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -2236,7 +2236,7 @@
       <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="3"/>
+      <c r="A59" s="2"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -2264,7 +2264,7 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="3"/>
+      <c r="A60" s="2"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -2292,7 +2292,7 @@
       <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -2320,7 +2320,7 @@
       <c r="Z61" s="15"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="3"/>
+      <c r="A62" s="2"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -2348,7 +2348,7 @@
       <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="3"/>
+      <c r="A63" s="2"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -2376,7 +2376,7 @@
       <c r="Z63" s="15"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="3"/>
+      <c r="A64" s="2"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -2404,7 +2404,7 @@
       <c r="Z64" s="15"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="3"/>
+      <c r="A65" s="2"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2432,7 +2432,7 @@
       <c r="Z65" s="15"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="3"/>
+      <c r="A66" s="2"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -2460,7 +2460,7 @@
       <c r="Z66" s="15"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="3"/>
+      <c r="A67" s="2"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -2488,7 +2488,7 @@
       <c r="Z67" s="15"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="3"/>
+      <c r="A68" s="2"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -2516,7 +2516,7 @@
       <c r="Z68" s="15"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="3"/>
+      <c r="A69" s="2"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -2544,7 +2544,7 @@
       <c r="Z69" s="15"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="3"/>
+      <c r="A70" s="2"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -2572,7 +2572,7 @@
       <c r="Z70" s="15"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="3"/>
+      <c r="A71" s="2"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -2600,7 +2600,7 @@
       <c r="Z71" s="15"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="3"/>
+      <c r="A72" s="2"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -2628,7 +2628,7 @@
       <c r="Z72" s="15"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="3"/>
+      <c r="A73" s="2"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2656,7 +2656,7 @@
       <c r="Z73" s="15"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="3"/>
+      <c r="A74" s="2"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2684,7 +2684,7 @@
       <c r="Z74" s="15"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="3"/>
+      <c r="A75" s="2"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -2712,7 +2712,7 @@
       <c r="Z75" s="15"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="3"/>
+      <c r="A76" s="2"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -2740,7 +2740,7 @@
       <c r="Z76" s="15"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="3"/>
+      <c r="A77" s="2"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -2768,7 +2768,7 @@
       <c r="Z77" s="15"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="3"/>
+      <c r="A78" s="2"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -2796,7 +2796,7 @@
       <c r="Z78" s="15"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="3"/>
+      <c r="A79" s="2"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2824,7 +2824,7 @@
       <c r="Z79" s="15"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="3"/>
+      <c r="A80" s="2"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -2852,7 +2852,7 @@
       <c r="Z80" s="15"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="3"/>
+      <c r="A81" s="2"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -2880,7 +2880,7 @@
       <c r="Z81" s="15"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="3"/>
+      <c r="A82" s="2"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -2908,7 +2908,7 @@
       <c r="Z82" s="15"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
@@ -2936,7 +2936,7 @@
       <c r="Z83" s="15"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="3"/>
+      <c r="A84" s="2"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -2964,7 +2964,7 @@
       <c r="Z84" s="15"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="3"/>
+      <c r="A85" s="2"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -2992,7 +2992,7 @@
       <c r="Z85" s="15"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="3"/>
+      <c r="A86" s="2"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -3020,7 +3020,7 @@
       <c r="Z86" s="15"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="3"/>
+      <c r="A87" s="2"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -3048,7 +3048,7 @@
       <c r="Z87" s="15"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="3"/>
+      <c r="A88" s="2"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
@@ -3076,7 +3076,7 @@
       <c r="Z88" s="15"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="3"/>
+      <c r="A89" s="2"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
@@ -3104,7 +3104,7 @@
       <c r="Z89" s="15"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="3"/>
+      <c r="A90" s="2"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -3132,7 +3132,7 @@
       <c r="Z90" s="15"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="3"/>
+      <c r="A91" s="2"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -3160,7 +3160,7 @@
       <c r="Z91" s="15"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="3"/>
+      <c r="A92" s="2"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -3188,7 +3188,7 @@
       <c r="Z92" s="15"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -3216,7 +3216,7 @@
       <c r="Z93" s="15"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="3"/>
+      <c r="A94" s="2"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -3244,7 +3244,7 @@
       <c r="Z94" s="15"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="3"/>
+      <c r="A95" s="2"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -3272,7 +3272,7 @@
       <c r="Z95" s="15"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="3"/>
+      <c r="A96" s="2"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
@@ -3300,7 +3300,7 @@
       <c r="Z96" s="15"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="3"/>
+      <c r="A97" s="2"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -3328,7 +3328,7 @@
       <c r="Z97" s="15"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="3"/>
+      <c r="A98" s="2"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
@@ -3356,7 +3356,7 @@
       <c r="Z98" s="15"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="3"/>
+      <c r="A99" s="2"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -3384,7 +3384,7 @@
       <c r="Z99" s="15"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="3"/>
+      <c r="A100" s="2"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -3414,6 +3414,18 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
@@ -3421,18 +3433,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
